--- a/team_specific_matrix/Howard_B.xlsx
+++ b/team_specific_matrix/Howard_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2238805970149254</v>
+        <v>0.2189189189189189</v>
       </c>
       <c r="C2">
-        <v>0.5111940298507462</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02238805970149254</v>
+        <v>0.01891891891891892</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1567164179104478</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08582089552238806</v>
+        <v>0.08648648648648649</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C3">
-        <v>0.01408450704225352</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007042253521126761</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6971830985915493</v>
+        <v>0.6989795918367347</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2676056338028169</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7931034482758621</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1379310344827586</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04878048780487805</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006097560975609756</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03658536585365853</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3353658536585366</v>
+        <v>0.3066037735849056</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1097560975609756</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="R6">
-        <v>0.1036585365853658</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="S6">
-        <v>0.3597560975609756</v>
+        <v>0.3867924528301887</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.14</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01333333333333333</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1133333333333333</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1866666666666667</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="R7">
-        <v>0.09333333333333334</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S7">
-        <v>0.3933333333333333</v>
+        <v>0.3982300884955752</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1016949152542373</v>
+        <v>0.09948979591836735</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0135593220338983</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="E8">
-        <v>0.003389830508474576</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="F8">
-        <v>0.0711864406779661</v>
+        <v>0.0586734693877551</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1355932203389831</v>
+        <v>0.1301020408163265</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02372881355932203</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1694915254237288</v>
+        <v>0.1862244897959184</v>
       </c>
       <c r="R8">
-        <v>0.1050847457627119</v>
+        <v>0.09948979591836735</v>
       </c>
       <c r="S8">
-        <v>0.376271186440678</v>
+        <v>0.3826530612244898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04964539007092199</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06382978723404255</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1418439716312057</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03546099290780142</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2269503546099291</v>
+        <v>0.2160804020100502</v>
       </c>
       <c r="R9">
-        <v>0.09219858156028368</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="S9">
-        <v>0.3687943262411347</v>
+        <v>0.3768844221105528</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1422550052687039</v>
+        <v>0.1438569206842924</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02002107481559536</v>
+        <v>0.02099533437013997</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0642781875658588</v>
+        <v>0.05987558320373251</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1275026343519494</v>
+        <v>0.1275272161741835</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0231822971548999</v>
+        <v>0.02488335925349922</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.220231822971549</v>
+        <v>0.2262830482115085</v>
       </c>
       <c r="R10">
-        <v>0.05795574288724974</v>
+        <v>0.05987558320373251</v>
       </c>
       <c r="S10">
-        <v>0.3445732349841939</v>
+        <v>0.3367029548989113</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1476793248945148</v>
+        <v>0.1710144927536232</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08860759493670886</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="K11">
-        <v>0.1856540084388186</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="L11">
-        <v>0.5485232067510548</v>
+        <v>0.5449275362318841</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02953586497890295</v>
+        <v>0.02318840579710145</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7633587786259542</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1755725190839695</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="K12">
-        <v>0.02290076335877863</v>
+        <v>0.015625</v>
       </c>
       <c r="L12">
-        <v>0.01526717557251908</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02290076335877863</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6451612903225806</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09677419354838709</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02597402597402598</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1558441558441558</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="J15">
-        <v>0.3181818181818182</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="K15">
-        <v>0.06493506493506493</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006493506493506494</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="N15">
-        <v>0.006493506493506494</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="O15">
-        <v>0.03896103896103896</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3116883116883117</v>
+        <v>0.3098591549295774</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0440251572327044</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1446540880503145</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="I16">
-        <v>0.08176100628930817</v>
+        <v>0.08</v>
       </c>
       <c r="J16">
-        <v>0.4339622641509434</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K16">
-        <v>0.1069182389937107</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01257861635220126</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06289308176100629</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1132075471698113</v>
+        <v>0.1022222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02967359050445104</v>
+        <v>0.0276595744680851</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1275964391691395</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="I17">
-        <v>0.115727002967359</v>
+        <v>0.1127659574468085</v>
       </c>
       <c r="J17">
-        <v>0.4421364985163205</v>
+        <v>0.4297872340425532</v>
       </c>
       <c r="K17">
-        <v>0.1068249258160237</v>
+        <v>0.1085106382978723</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005934718100890208</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0771513353115727</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09495548961424333</v>
+        <v>0.1042553191489362</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0310077519379845</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1395348837209302</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="I18">
-        <v>0.0310077519379845</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="J18">
-        <v>0.4496124031007752</v>
+        <v>0.4540229885057471</v>
       </c>
       <c r="K18">
-        <v>0.1007751937984496</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01550387596899225</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1007751937984496</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1317829457364341</v>
+        <v>0.1091954022988506</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0188470066518847</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2106430155210643</v>
+        <v>0.2042657916324856</v>
       </c>
       <c r="I19">
-        <v>0.082039911308204</v>
+        <v>0.08367514356029532</v>
       </c>
       <c r="J19">
-        <v>0.3569844789356985</v>
+        <v>0.3625922887612797</v>
       </c>
       <c r="K19">
-        <v>0.1208425720620843</v>
+        <v>0.1238720262510254</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02993348115299335</v>
+        <v>0.02871205906480722</v>
       </c>
       <c r="N19">
-        <v>0.001108647450110865</v>
+        <v>0.0008203445447087777</v>
       </c>
       <c r="O19">
-        <v>0.05099778270509978</v>
+        <v>0.05578342904019688</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1286031042128603</v>
+        <v>0.1214109926168991</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Howard_B.xlsx
+++ b/team_specific_matrix/Howard_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2189189189189189</v>
+        <v>0.2144638403990025</v>
       </c>
       <c r="C2">
-        <v>0.5135135135135135</v>
+        <v>0.5236907730673317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01891891891891892</v>
+        <v>0.01745635910224439</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1621621621621622</v>
+        <v>0.1596009975062344</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08648648648648649</v>
+        <v>0.08478802992518704</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01020408163265306</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C3">
-        <v>0.01530612244897959</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02551020408163265</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6989795918367347</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7333333333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05188679245283019</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03773584905660377</v>
+        <v>0.03781512605042017</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3066037735849056</v>
+        <v>0.3067226890756303</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1084905660377359</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="R6">
-        <v>0.09905660377358491</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="S6">
-        <v>0.3867924528301887</v>
+        <v>0.3865546218487395</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1327433628318584</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02212389380530973</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05309734513274336</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09734513274336283</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02212389380530973</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1858407079646018</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="R7">
-        <v>0.08849557522123894</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="S7">
-        <v>0.3982300884955752</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09948979591836735</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01530612244897959</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E8">
-        <v>0.002551020408163265</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="F8">
-        <v>0.0586734693877551</v>
+        <v>0.05787037037037037</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1301020408163265</v>
+        <v>0.1273148148148148</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02551020408163265</v>
+        <v>0.02546296296296296</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1862244897959184</v>
+        <v>0.1875</v>
       </c>
       <c r="R8">
-        <v>0.09948979591836735</v>
+        <v>0.09490740740740741</v>
       </c>
       <c r="S8">
-        <v>0.3826530612244898</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07035175879396985</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02512562814070352</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05527638190954774</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1256281407035176</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04020100502512563</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2160804020100502</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="R9">
-        <v>0.09045226130653267</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S9">
-        <v>0.3768844221105528</v>
+        <v>0.3849557522123894</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1438569206842924</v>
+        <v>0.1373937677053824</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02099533437013997</v>
+        <v>0.01912181303116147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05987558320373251</v>
+        <v>0.06303116147308782</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1275272161741835</v>
+        <v>0.1232294617563739</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02488335925349922</v>
+        <v>0.02407932011331445</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2262830482115085</v>
+        <v>0.231586402266289</v>
       </c>
       <c r="R10">
-        <v>0.05987558320373251</v>
+        <v>0.0594900849858357</v>
       </c>
       <c r="S10">
-        <v>0.3367029548989113</v>
+        <v>0.3420679886685553</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1710144927536232</v>
+        <v>0.1679790026246719</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07246376811594203</v>
+        <v>0.06824146981627296</v>
       </c>
       <c r="K11">
-        <v>0.1884057971014493</v>
+        <v>0.1837270341207349</v>
       </c>
       <c r="L11">
-        <v>0.5449275362318841</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02318840579710145</v>
+        <v>0.02099737532808399</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7708333333333334</v>
+        <v>0.7880184331797235</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1770833333333333</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K12">
-        <v>0.015625</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="L12">
-        <v>0.02083333333333333</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.015625</v>
+        <v>0.0184331797235023</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5681818181818182</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1136363636363636</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02347417840375587</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1549295774647887</v>
+        <v>0.1502145922746781</v>
       </c>
       <c r="I15">
-        <v>0.07511737089201878</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="J15">
-        <v>0.3098591549295774</v>
+        <v>0.3218884120171674</v>
       </c>
       <c r="K15">
-        <v>0.07042253521126761</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004694835680751174</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="N15">
-        <v>0.004694835680751174</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="O15">
-        <v>0.04694835680751173</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3098591549295774</v>
+        <v>0.3090128755364807</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04444444444444445</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1377777777777778</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J16">
-        <v>0.4444444444444444</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="K16">
-        <v>0.1288888888888889</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01333333333333333</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04888888888888889</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1022222222222222</v>
+        <v>0.1056910569105691</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0276595744680851</v>
+        <v>0.02646502835538752</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1382978723404255</v>
+        <v>0.1398865784499055</v>
       </c>
       <c r="I17">
-        <v>0.1127659574468085</v>
+        <v>0.1209829867674858</v>
       </c>
       <c r="J17">
-        <v>0.4297872340425532</v>
+        <v>0.4177693761814745</v>
       </c>
       <c r="K17">
-        <v>0.1085106382978723</v>
+        <v>0.1077504725897921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01063829787234043</v>
+        <v>0.0113421550094518</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06808510638297872</v>
+        <v>0.0661625708884688</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1042553191489362</v>
+        <v>0.109640831758034</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02873563218390805</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1379310344827586</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="I18">
-        <v>0.05172413793103448</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="J18">
-        <v>0.4540229885057471</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K18">
-        <v>0.1149425287356322</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01724137931034483</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08620689655172414</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1091954022988506</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01886792452830189</v>
+        <v>0.01827485380116959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2042657916324856</v>
+        <v>0.1988304093567251</v>
       </c>
       <c r="I19">
-        <v>0.08367514356029532</v>
+        <v>0.08406432748538012</v>
       </c>
       <c r="J19">
-        <v>0.3625922887612797</v>
+        <v>0.3625730994152047</v>
       </c>
       <c r="K19">
-        <v>0.1238720262510254</v>
+        <v>0.125</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02871205906480722</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N19">
-        <v>0.0008203445447087777</v>
+        <v>0.0007309941520467836</v>
       </c>
       <c r="O19">
-        <v>0.05578342904019688</v>
+        <v>0.0577485380116959</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1214109926168991</v>
+        <v>0.1264619883040936</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Howard_B.xlsx
+++ b/team_specific_matrix/Howard_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2144638403990025</v>
+        <v>0.2157772621809745</v>
       </c>
       <c r="C2">
-        <v>0.5236907730673317</v>
+        <v>0.5197215777262181</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01745635910224439</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1596009975062344</v>
+        <v>0.1577726218097448</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08478802992518704</v>
+        <v>0.08816705336426914</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009259259259259259</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="C3">
-        <v>0.01851851851851852</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02314814814814815</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7083333333333334</v>
+        <v>0.7043478260869566</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2407407407407407</v>
+        <v>0.2434782608695652</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0546218487394958</v>
+        <v>0.05118110236220472</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008403361344537815</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03781512605042017</v>
+        <v>0.03543307086614173</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3067226890756303</v>
+        <v>0.3031496062992126</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1134453781512605</v>
+        <v>0.1220472440944882</v>
       </c>
       <c r="R6">
-        <v>0.09243697478991597</v>
+        <v>0.09055118110236221</v>
       </c>
       <c r="S6">
-        <v>0.3865546218487395</v>
+        <v>0.3858267716535433</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1372549019607843</v>
+        <v>0.1345454545454546</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02352941176470588</v>
+        <v>0.02545454545454546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04705882352941176</v>
+        <v>0.04727272727272727</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09019607843137255</v>
+        <v>0.1018181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1882352941176471</v>
+        <v>0.2036363636363636</v>
       </c>
       <c r="R7">
-        <v>0.08235294117647059</v>
+        <v>0.08363636363636363</v>
       </c>
       <c r="S7">
-        <v>0.4117647058823529</v>
+        <v>0.3854545454545454</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1064814814814815</v>
+        <v>0.1054945054945055</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01851851851851852</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="E8">
-        <v>0.002314814814814815</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="F8">
-        <v>0.05787037037037037</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273148148148148</v>
+        <v>0.1296703296703297</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02546296296296296</v>
+        <v>0.02417582417582418</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1875</v>
+        <v>0.1824175824175824</v>
       </c>
       <c r="R8">
-        <v>0.09490740740740741</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S8">
-        <v>0.3796296296296297</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0752212389380531</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02212389380530973</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05752212389380531</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1238938053097345</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03539823008849557</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2123893805309734</v>
+        <v>0.2033195020746888</v>
       </c>
       <c r="R9">
-        <v>0.08849557522123894</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="S9">
-        <v>0.3849557522123894</v>
+        <v>0.3900414937759336</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1373937677053824</v>
+        <v>0.1413404114134041</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01912181303116147</v>
+        <v>0.019907100199071</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0006635700066357001</v>
       </c>
       <c r="F10">
-        <v>0.06303116147308782</v>
+        <v>0.0650298606502986</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1232294617563739</v>
+        <v>0.1220968812209688</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02407932011331445</v>
+        <v>0.0232249502322495</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.231586402266289</v>
+        <v>0.2289316522893165</v>
       </c>
       <c r="R10">
-        <v>0.0594900849858357</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="S10">
-        <v>0.3420679886685553</v>
+        <v>0.3404114134041141</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1679790026246719</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06824146981627296</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="K11">
-        <v>0.1837270341207349</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="L11">
-        <v>0.5590551181102362</v>
+        <v>0.5612745098039216</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02099737532808399</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7880184331797235</v>
+        <v>0.7939914163090128</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1612903225806452</v>
+        <v>0.1587982832618026</v>
       </c>
       <c r="K12">
-        <v>0.01382488479262673</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="L12">
-        <v>0.0184331797235023</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0184331797235023</v>
+        <v>0.01716738197424893</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.574468085106383</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3191489361702128</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1063829787234043</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02145922746781116</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1502145922746781</v>
+        <v>0.1485943775100401</v>
       </c>
       <c r="I15">
-        <v>0.07725321888412018</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="J15">
-        <v>0.3218884120171674</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="K15">
-        <v>0.06866952789699571</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004291845493562232</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="N15">
-        <v>0.004291845493562232</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="O15">
-        <v>0.04291845493562232</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3090128755364807</v>
+        <v>0.3052208835341366</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04471544715447155</v>
+        <v>0.04182509505703422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1382113821138211</v>
+        <v>0.1368821292775665</v>
       </c>
       <c r="I16">
-        <v>0.07317073170731707</v>
+        <v>0.07604562737642585</v>
       </c>
       <c r="J16">
-        <v>0.4471544715447154</v>
+        <v>0.4448669201520912</v>
       </c>
       <c r="K16">
-        <v>0.1300813008130081</v>
+        <v>0.1330798479087452</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1056910569105691</v>
+        <v>0.1102661596958175</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02646502835538752</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1398865784499055</v>
+        <v>0.1405693950177936</v>
       </c>
       <c r="I17">
-        <v>0.1209829867674858</v>
+        <v>0.1192170818505338</v>
       </c>
       <c r="J17">
-        <v>0.4177693761814745</v>
+        <v>0.4181494661921708</v>
       </c>
       <c r="K17">
-        <v>0.1077504725897921</v>
+        <v>0.1067615658362989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0113421550094518</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0661625708884688</v>
+        <v>0.06761565836298933</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.109640831758034</v>
+        <v>0.1085409252669039</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03225806451612903</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1397849462365591</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="I18">
-        <v>0.05376344086021505</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="J18">
-        <v>0.4516129032258064</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="K18">
-        <v>0.1129032258064516</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02150537634408602</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08064516129032258</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1075268817204301</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01827485380116959</v>
+        <v>0.01780821917808219</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1988304093567251</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="I19">
-        <v>0.08406432748538012</v>
+        <v>0.08424657534246575</v>
       </c>
       <c r="J19">
-        <v>0.3625730994152047</v>
+        <v>0.360958904109589</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.126027397260274</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02631578947368421</v>
+        <v>0.02602739726027397</v>
       </c>
       <c r="N19">
-        <v>0.0007309941520467836</v>
+        <v>0.0006849315068493151</v>
       </c>
       <c r="O19">
-        <v>0.0577485380116959</v>
+        <v>0.0589041095890411</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1264619883040936</v>
+        <v>0.1280821917808219</v>
       </c>
     </row>
   </sheetData>
